--- a/assets/excel/ejemplo_diccionario_de_datos.xlsx
+++ b/assets/excel/ejemplo_diccionario_de_datos.xlsx
@@ -37,62 +37,100 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="98">
-  <si>
-    <r>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="98">
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Muli, Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="9.0"/>
+      </rPr>
       <t xml:space="preserve">Nombre de la base y/o conjunto de datos
 </t>
     </r>
     <r>
       <rPr>
+        <rFont val="Muli, Arial"/>
+        <b val="0"/>
+        <color rgb="FF000000"/>
         <sz val="8.0"/>
       </rPr>
       <t>(Repetir el nombre en todas las filas</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <rFont val="Muli, Arial"/>
+        <b val="0"/>
+        <color rgb="FF000000"/>
+        <sz val="9.0"/>
+      </rPr>
       <t>)</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <rFont val="Muli, Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="9.0"/>
+      </rPr>
       <t xml:space="preserve">Nombre de la tabla de la base de datos / hoja del conjunto de datos
 </t>
     </r>
     <r>
       <rPr>
+        <rFont val="Muli, Arial"/>
+        <b val="0"/>
+        <color theme="1"/>
         <sz val="8.0"/>
       </rPr>
       <t xml:space="preserve">(En caso de que no existan numerosas tablas u hojas escribir </t>
     </r>
     <r>
       <rPr>
+        <rFont val="Muli, Arial"/>
+        <b val="0"/>
         <i/>
+        <color theme="1"/>
         <sz val="8.0"/>
       </rPr>
       <t>“No aplica"</t>
     </r>
     <r>
       <rPr>
+        <rFont val="Muli, Arial"/>
+        <b val="0"/>
+        <color theme="1"/>
         <sz val="8.0"/>
       </rPr>
       <t>)</t>
     </r>
   </si>
   <si>
-    <t>Etiqueta</t>
+    <t>Etiqueta del campo o variable (atributo)</t>
   </si>
   <si>
     <t>Descripción</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Tipo de variable,  campo o atributo
+      <rPr>
+        <rFont val="Muli, Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="9.0"/>
+      </rPr>
+      <t xml:space="preserve">Tipo de dato
 </t>
     </r>
     <r>
       <rPr>
+        <rFont val="Muli, Arial"/>
+        <b val="0"/>
         <i/>
+        <color theme="1"/>
         <sz val="8.0"/>
       </rPr>
       <t>(Seleccione de acuerdo a las opciones)</t>
@@ -104,42 +142,72 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <rFont val="Muli, Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="9.0"/>
+      </rPr>
       <t xml:space="preserve">Clasificación de la información
 </t>
     </r>
     <r>
       <rPr>
+        <rFont val="Muli, Arial"/>
+        <b val="0"/>
+        <color theme="1"/>
         <sz val="8.0"/>
       </rPr>
       <t xml:space="preserve">(Reservada, Confidencial o Pública)
 </t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <rFont val="Muli, Arial"/>
+        <b val="0"/>
+        <color theme="1"/>
+        <sz val="9.0"/>
+      </rPr>
       <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
+        <rFont val="Muli, Arial"/>
+        <b val="0"/>
         <i/>
+        <color theme="1"/>
         <sz val="8.0"/>
       </rPr>
       <t>(Seleccione de acuerdo a las opciones</t>
     </r>
     <r>
       <rPr>
+        <rFont val="Muli, Arial"/>
+        <b val="0"/>
         <i/>
+        <color theme="1"/>
+        <sz val="9.0"/>
       </rPr>
       <t>)</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <rFont val="Muli, Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="9.0"/>
+      </rPr>
       <t xml:space="preserve">Especificaciones y/o reglas de cálculo
 </t>
     </r>
     <r>
       <rPr>
+        <rFont val="Muli, Arial"/>
+        <b val="0"/>
+        <color theme="1"/>
         <sz val="8.0"/>
       </rPr>
       <t>(En caso de que este elemento no aplique a su base de datos y/o conjunto de datos, registre “No Aplica”)</t>
@@ -147,19 +215,45 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <rFont val="Muli, Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="9.0"/>
+      </rPr>
       <t xml:space="preserve">Obligatoriedad del campo
 </t>
     </r>
     <r>
       <rPr>
+        <rFont val="Muli, Arial"/>
+        <b val="0"/>
+        <color theme="1"/>
         <sz val="8.0"/>
       </rPr>
       <t>(Seleccione de acuerdo a las opciones)</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Registro de campos vacíos 
+    <r>
+      <rPr>
+        <rFont val="Muli"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="9.0"/>
+      </rPr>
+      <t xml:space="preserve">Registro de campos vacíos 
 </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Muli"/>
+        <b val="0"/>
+        <color theme="1"/>
+        <sz val="9.0"/>
+      </rPr>
+      <t>(Si este campo no tiene campos vacíos anotar "SIN DATOS VACÍOS")</t>
+    </r>
   </si>
   <si>
     <t>Tamizajes CDMX con kit</t>
@@ -191,10 +285,16 @@
     <t xml:space="preserve">Obligatorio  </t>
   </si>
   <si>
+    <t xml:space="preserve">SIN DATOS VACÍOS </t>
+  </si>
+  <si>
     <t>nombre</t>
   </si>
   <si>
     <t>Nombre completo de la persona que respondió el Tamizaje COVID-19.</t>
+  </si>
+  <si>
+    <t>Alfanumérico</t>
   </si>
   <si>
     <t>Texto</t>
@@ -400,7 +500,8 @@
   <si>
     <t>1=Sí
 2=No
-9= No confirmado</t>
+9= No confirmado
+N/R= No responde</t>
   </si>
   <si>
     <t>9 = No confirmado
@@ -411,11 +512,22 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <rFont val="Muli, Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="10.0"/>
+      </rPr>
       <t xml:space="preserve">Clasificación de la información
 </t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <rFont val="Muli, Arial"/>
+        <b val="0"/>
+        <color theme="1"/>
+        <sz val="10.0"/>
+      </rPr>
       <t>(reservada, confidencial, pública)</t>
     </r>
   </si>
@@ -432,9 +544,6 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>Alfanumérico</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -448,16 +557,13 @@
   </si>
   <si>
     <t>Geometry</t>
-  </si>
-  <si>
-    <t>Proyección</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -473,6 +579,11 @@
       <b/>
       <sz val="9.0"/>
       <color theme="1"/>
+      <name val="Muli"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.0"/>
       <name val="Muli"/>
     </font>
     <font>
@@ -503,11 +614,15 @@
     </font>
     <font>
       <sz val="10.0"/>
+      <name val="Muli"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Muli"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -518,12 +633,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor theme="0"/>
       </patternFill>
     </fill>
   </fills>
@@ -561,7 +670,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -571,6 +680,9 @@
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -580,65 +692,79 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf borderId="2" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -876,13 +1002,13 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -894,593 +1020,598 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="6" t="s">
+      <c r="I6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="12" t="s">
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" ht="40.5" customHeight="1">
+      <c r="A18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="H19" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" ht="40.5" customHeight="1">
-      <c r="A18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>84</v>
+      <c r="J19" s="12" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E2:E19">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(E2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E19">
-      <formula1>Validadores!$A$2:$A$12</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="G2:G19">
       <formula1>Validadores!$B$2:$B$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="E2:E19">
+      <formula1>Validadores!$A$2:$A$10</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="I2:I19">
       <formula1>Validadores!$D$2:$D$3</formula1>
@@ -1509,120 +1640,104 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1">
-      <c r="A1" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="B1" s="21" t="s">
         <v>88</v>
       </c>
+      <c r="C1" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="22" t="s">
+      <c r="A2" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="24" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="22" t="s">
+      <c r="A3" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>24</v>
       </c>
+      <c r="C3" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="22" t="s">
+      <c r="A4" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
     </row>
     <row r="5">
-      <c r="A5" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
+      <c r="A5" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
     </row>
     <row r="6">
-      <c r="A6" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="A6" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
     </row>
     <row r="7">
-      <c r="A7" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+      <c r="A7" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
     </row>
     <row r="8">
-      <c r="A8" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
+      <c r="A8" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
     </row>
     <row r="9">
-      <c r="A9" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
+      <c r="A9" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
     </row>
     <row r="10">
-      <c r="A10" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="22" t="s">
+      <c r="A10" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
